--- a/Project_Management/Sprint7/Burndown chart.xlsx
+++ b/Project_Management/Sprint7/Burndown chart.xlsx
@@ -5,23 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Desktop/projES1/Project_Management/Sprint7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCA57F0-F232-8342-BB9B-2D04E6352B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2727F-2422-774A-922F-C06855A4FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15420" windowHeight="18900" xr2:uid="{82BF715D-18D1-BE43-A6EE-C815159976D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="17640" xr2:uid="{82BF715D-18D1-BE43-A6EE-C815159976D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -657,7 +650,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$27:$K$27</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>27.4</c:v>
@@ -755,7 +748,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$28:$K$28</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>27.4</c:v>
@@ -1591,311 +1584,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Burndown Chart"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Day 0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-          <cell r="G12">
-            <v>0</v>
-          </cell>
-          <cell r="H12">
-            <v>2</v>
-          </cell>
-          <cell r="I12">
-            <v>1</v>
-          </cell>
-          <cell r="J12">
-            <v>0.89999999999999991</v>
-          </cell>
-          <cell r="K12">
-            <v>3.4000000000000004</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>14.5</v>
-          </cell>
-          <cell r="E13">
-            <v>14.5</v>
-          </cell>
-          <cell r="F13">
-            <v>13.5</v>
-          </cell>
-          <cell r="G13">
-            <v>13.5</v>
-          </cell>
-          <cell r="H13">
-            <v>11.5</v>
-          </cell>
-          <cell r="I13">
-            <v>10.5</v>
-          </cell>
-          <cell r="J13">
-            <v>9.6</v>
-          </cell>
-          <cell r="K13">
-            <v>6.1999999999999993</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>14.5</v>
-          </cell>
-          <cell r="E14">
-            <v>12.428571428571429</v>
-          </cell>
-          <cell r="F14">
-            <v>10.357142857142858</v>
-          </cell>
-          <cell r="G14">
-            <v>8.2857142857142847</v>
-          </cell>
-          <cell r="H14">
-            <v>6.2142857142857135</v>
-          </cell>
-          <cell r="I14">
-            <v>4.1428571428571423</v>
-          </cell>
-          <cell r="J14">
-            <v>2.0714285714285694</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Day 0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Day 1</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Day 2</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Day 3</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Day 4</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>Day 5</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>Day 6</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Day 7</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Completed Effort</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Remaining Effort</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Ideal Burndown</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Day 0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Day 1</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Day 2</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Day 3</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Day 4</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>Day 5</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>Day 6</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Day 7</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-          <cell r="E36">
-            <v>4.9000000000000012</v>
-          </cell>
-          <cell r="F36">
-            <v>5.3999999999999995</v>
-          </cell>
-          <cell r="G36">
-            <v>3.1</v>
-          </cell>
-          <cell r="H36">
-            <v>4.3</v>
-          </cell>
-          <cell r="I36">
-            <v>4.7000000000000011</v>
-          </cell>
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-          <cell r="K36">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>28.399999999999995</v>
-          </cell>
-          <cell r="E37">
-            <v>23.499999999999993</v>
-          </cell>
-          <cell r="F37">
-            <v>18.099999999999994</v>
-          </cell>
-          <cell r="G37">
-            <v>14.999999999999995</v>
-          </cell>
-          <cell r="H37">
-            <v>10.699999999999996</v>
-          </cell>
-          <cell r="I37">
-            <v>5.9999999999999947</v>
-          </cell>
-          <cell r="J37">
-            <v>5.9999999999999947</v>
-          </cell>
-          <cell r="K37">
-            <v>5.7999999999999945</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>28.399999999999995</v>
-          </cell>
-          <cell r="E38">
-            <v>24.342857142857138</v>
-          </cell>
-          <cell r="F38">
-            <v>20.285714285714285</v>
-          </cell>
-          <cell r="G38">
-            <v>16.228571428571428</v>
-          </cell>
-          <cell r="H38">
-            <v>12.171428571428571</v>
-          </cell>
-          <cell r="I38">
-            <v>8.1142857142857139</v>
-          </cell>
-          <cell r="J38">
-            <v>4.0571428571428605</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2198,7 +1886,7 @@
   <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
